--- a/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>177978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168048</v>
+        <v>168066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184287</v>
+        <v>184201</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9210158048464829</v>
+        <v>0.921015804846483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8696293798553394</v>
+        <v>0.8697228514028433</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9536648455421445</v>
+        <v>0.953220158106443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>266</v>
@@ -762,19 +762,19 @@
         <v>183231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164591</v>
+        <v>166343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200892</v>
+        <v>202420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3400565853601546</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3054618951500201</v>
+        <v>0.3087138905798794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3728342637902908</v>
+        <v>0.3756693723017084</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>424</v>
@@ -783,19 +783,19 @@
         <v>361209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338564</v>
+        <v>335766</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>384979</v>
+        <v>387512</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4934101115208112</v>
+        <v>0.4934101115208113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.46247683592268</v>
+        <v>0.4586559818761046</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5258796313920091</v>
+        <v>0.529340332829201</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8954</v>
+        <v>9040</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25193</v>
+        <v>25175</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07898419515351698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04633515445785542</v>
+        <v>0.04677984189355697</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1303706201446606</v>
+        <v>0.1302771485971565</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>638</v>
@@ -833,19 +833,19 @@
         <v>355594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337933</v>
+        <v>336405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>374234</v>
+        <v>372482</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6599434146398455</v>
+        <v>0.6599434146398456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6271657362097092</v>
+        <v>0.6243306276982918</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6945381048499796</v>
+        <v>0.6912861094201207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>654</v>
@@ -854,19 +854,19 @@
         <v>370857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>347087</v>
+        <v>344554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>393502</v>
+        <v>396300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5065898884791888</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4741203686079909</v>
+        <v>0.4706596671707988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5375231640773199</v>
+        <v>0.5413440181238953</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>1502883</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1471322</v>
+        <v>1470279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1525400</v>
+        <v>1524988</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9398721210866127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.920134502004151</v>
+        <v>0.9194823803795604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9539538601807371</v>
+        <v>0.9536962229643736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1802</v>
@@ -979,19 +979,19 @@
         <v>1444974</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1418073</v>
+        <v>1413882</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1472537</v>
+        <v>1471079</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8389949771007614</v>
+        <v>0.8389949771007615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.823375597432319</v>
+        <v>0.8209418416898168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8549988946927131</v>
+        <v>0.8541520727103481</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3008</v>
@@ -1000,19 +1000,19 @@
         <v>2947856</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2906488</v>
+        <v>2906655</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2984830</v>
+        <v>2982912</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8875619925819449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8751067264553214</v>
+        <v>0.8751567508639695</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8986944647574822</v>
+        <v>0.8981169863012086</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>96146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73629</v>
+        <v>74041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127707</v>
+        <v>128750</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06012787891338735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04604613981926298</v>
+        <v>0.04630377703562629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07986549799584905</v>
+        <v>0.08051761962043927</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>423</v>
@@ -1050,19 +1050,19 @@
         <v>277294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>249731</v>
+        <v>251189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>304195</v>
+        <v>308386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1610050228992386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.145001105307287</v>
+        <v>0.145847927289652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1766244025676811</v>
+        <v>0.1790581583101832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>485</v>
@@ -1071,19 +1071,19 @@
         <v>373440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>336466</v>
+        <v>338384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>414808</v>
+        <v>414641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1124380074180551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1013055352425179</v>
+        <v>0.1018830136987916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1248932735446789</v>
+        <v>0.1248432491360309</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>529858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>516034</v>
+        <v>516269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>537712</v>
+        <v>538117</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9722725287758399</v>
+        <v>0.9722725287758401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9469048822853786</v>
+        <v>0.9473366745669037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.986684167088907</v>
+        <v>0.9874264510901043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>733</v>
@@ -1196,19 +1196,19 @@
         <v>557032</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>545402</v>
+        <v>545616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>565772</v>
+        <v>566308</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9496258018732402</v>
+        <v>0.9496258018732401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9297995219981344</v>
+        <v>0.9301639122811299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9645267285230079</v>
+        <v>0.9654401459573348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1193</v>
@@ -1217,19 +1217,19 @@
         <v>1086890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1068116</v>
+        <v>1069044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1099474</v>
+        <v>1100020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9605327708724558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9439411519728708</v>
+        <v>0.9447617320150943</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9716543217843515</v>
+        <v>0.9721361284361042</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>15111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7257</v>
+        <v>6852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28935</v>
+        <v>28700</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02772747122416015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01331583291109257</v>
+        <v>0.01257354890989572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05309511771462119</v>
+        <v>0.05266332543309607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -1267,19 +1267,19 @@
         <v>29548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20808</v>
+        <v>20272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41178</v>
+        <v>40964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05037419812675983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03547327147699187</v>
+        <v>0.03455985404266526</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07020047800186507</v>
+        <v>0.06983608771887004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -1288,19 +1288,19 @@
         <v>44659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32075</v>
+        <v>31529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63433</v>
+        <v>62505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03946722912754429</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02834567821564826</v>
+        <v>0.02786387156389574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05605884802712927</v>
+        <v>0.05523826798490441</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2210719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2175041</v>
+        <v>2174058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2234661</v>
+        <v>2236237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.945867837944554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9306028332586952</v>
+        <v>0.9301822197197716</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9561114785504931</v>
+        <v>0.9567858305202752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2801</v>
@@ -1413,19 +1413,19 @@
         <v>2185237</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2145589</v>
+        <v>2142543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2220886</v>
+        <v>2221110</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7673762093175487</v>
+        <v>0.7673762093175485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7534534911798458</v>
+        <v>0.7523836347522527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7798951038048955</v>
+        <v>0.7799736584989009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4625</v>
@@ -1434,19 +1434,19 @@
         <v>4395955</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4345933</v>
+        <v>4343326</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4446383</v>
+        <v>4447808</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8478361243711384</v>
+        <v>0.8478361243711385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8381884958950638</v>
+        <v>0.8376856924354474</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8575621060491345</v>
+        <v>0.8578369068925008</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>126520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102578</v>
+        <v>101002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162198</v>
+        <v>163181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05413216205544601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04388852144950718</v>
+        <v>0.04321416947972514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06939716674130558</v>
+        <v>0.06981778028022831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1099</v>
@@ -1484,19 +1484,19 @@
         <v>662436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626787</v>
+        <v>626563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>702084</v>
+        <v>705130</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2326237906824515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2201048961951044</v>
+        <v>0.220026341501099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2465465088201542</v>
+        <v>0.2476163652477471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1187</v>
@@ -1505,19 +1505,19 @@
         <v>788956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738528</v>
+        <v>737103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>838978</v>
+        <v>841585</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1521638756288616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1424378939508653</v>
+        <v>0.1421630931074993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.161811504104936</v>
+        <v>0.1623143075645527</v>
       </c>
     </row>
     <row r="15">
